--- a/PageObjectModel/data/PlantationCreateTicket.xlsx
+++ b/PageObjectModel/data/PlantationCreateTicket.xlsx
@@ -87,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -110,7 +110,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,7 +140,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,30 +172,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,44 +186,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,23 +237,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,25 +260,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,151 +428,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,11 +469,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,17 +532,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,36 +556,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -557,19 +566,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,137 +584,131 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1054,7 +1054,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>

--- a/PageObjectModel/data/PlantationCreateTicket.xlsx
+++ b/PageObjectModel/data/PlantationCreateTicket.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>UserName</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>41</t>
+  </si>
+  <si>
+    <t>Appala Naidu Marie</t>
+  </si>
+  <si>
+    <t>8899</t>
+  </si>
+  <si>
+    <t>cc</t>
   </si>
 </sst>
 </file>
@@ -87,10 +96,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -110,22 +119,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,16 +149,48 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -161,17 +202,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,7 +218,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,52 +241,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,37 +269,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,43 +437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,97 +449,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,6 +478,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -486,8 +504,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -508,35 +528,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,157 +554,170 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1051,17 +1060,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="18.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="16.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="20.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="18.6666666666667" customWidth="1"/>
     <col min="5" max="5" width="8.77777777777778" customWidth="1"/>
     <col min="6" max="6" width="7.55555555555556" customWidth="1"/>
     <col min="7" max="7" width="5.44444444444444" customWidth="1"/>
@@ -1140,9 +1150,45 @@
         <v>21</v>
       </c>
     </row>
+    <row r="3" s="2" customFormat="1" spans="1:11">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="5">
+        <v>11</v>
+      </c>
+      <c r="H3" s="5">
+        <v>33</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="sime.lee@gmas.com"/>
+    <hyperlink ref="A3" r:id="rId1" display="sime.lee@gmas.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
